--- a/SchedulingData/dynamic10/pso/scheduling1_2.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling1_2.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>81.42</v>
+        <v>91.2</v>
       </c>
       <c r="E2" t="n">
-        <v>27.008</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="3">
@@ -485,55 +485,55 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>39.5</v>
+        <v>49.36</v>
       </c>
       <c r="E3" t="n">
-        <v>27.24</v>
+        <v>27.244</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>81.42</v>
+        <v>49.36</v>
       </c>
       <c r="D4" t="n">
-        <v>136.92</v>
+        <v>113.52</v>
       </c>
       <c r="E4" t="n">
-        <v>23.088</v>
+        <v>24.428</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>65.59999999999999</v>
+        <v>45.88</v>
       </c>
       <c r="E5" t="n">
-        <v>26.1</v>
+        <v>26.612</v>
       </c>
     </row>
     <row r="6">
@@ -542,17 +542,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>136.92</v>
+        <v>91.2</v>
       </c>
       <c r="D6" t="n">
-        <v>183.38</v>
+        <v>153.7</v>
       </c>
       <c r="E6" t="n">
-        <v>20.072</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="7">
@@ -561,36 +561,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>65.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>127.9</v>
+        <v>47.16</v>
       </c>
       <c r="E7" t="n">
-        <v>22.98</v>
+        <v>26.984</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>104.4</v>
+        <v>58.8</v>
       </c>
       <c r="E8" t="n">
-        <v>22.38</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="9">
@@ -599,36 +599,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>53.8</v>
+        <v>49.5</v>
       </c>
       <c r="E9" t="n">
-        <v>25.32</v>
+        <v>27.24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>127.9</v>
+        <v>45.88</v>
       </c>
       <c r="D10" t="n">
-        <v>170.1</v>
+        <v>104.94</v>
       </c>
       <c r="E10" t="n">
-        <v>20.38</v>
+        <v>22.816</v>
       </c>
     </row>
     <row r="11">
@@ -637,36 +637,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>104.4</v>
+        <v>113.52</v>
       </c>
       <c r="D11" t="n">
-        <v>150.76</v>
+        <v>178.96</v>
       </c>
       <c r="E11" t="n">
-        <v>19.364</v>
+        <v>20.004</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>150.76</v>
+        <v>47.16</v>
       </c>
       <c r="D12" t="n">
-        <v>201.04</v>
+        <v>111.96</v>
       </c>
       <c r="E12" t="n">
-        <v>15.976</v>
+        <v>22.124</v>
       </c>
     </row>
     <row r="13">
@@ -675,112 +675,112 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>170.1</v>
+        <v>111.96</v>
       </c>
       <c r="D13" t="n">
-        <v>215.6</v>
+        <v>182.16</v>
       </c>
       <c r="E13" t="n">
-        <v>17.96</v>
+        <v>18.204</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>183.38</v>
+        <v>178.96</v>
       </c>
       <c r="D14" t="n">
-        <v>227.32</v>
+        <v>236.46</v>
       </c>
       <c r="E14" t="n">
-        <v>16.808</v>
+        <v>15.384</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>53.8</v>
+        <v>58.8</v>
       </c>
       <c r="D15" t="n">
-        <v>104.86</v>
+        <v>138.8</v>
       </c>
       <c r="E15" t="n">
-        <v>22.824</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>104.86</v>
+        <v>104.94</v>
       </c>
       <c r="D16" t="n">
-        <v>149.22</v>
+        <v>161.1</v>
       </c>
       <c r="E16" t="n">
-        <v>19.028</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>227.32</v>
+        <v>182.16</v>
       </c>
       <c r="D17" t="n">
-        <v>285.88</v>
+        <v>228.22</v>
       </c>
       <c r="E17" t="n">
-        <v>14.052</v>
+        <v>15.708</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="D18" t="n">
-        <v>71.5</v>
+        <v>123.04</v>
       </c>
       <c r="E18" t="n">
-        <v>27.48</v>
+        <v>23.976</v>
       </c>
     </row>
     <row r="19">
@@ -789,17 +789,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.8</v>
       </c>
       <c r="D19" t="n">
-        <v>59.24</v>
+        <v>191.5</v>
       </c>
       <c r="E19" t="n">
-        <v>26.776</v>
+        <v>17.28</v>
       </c>
     </row>
     <row r="20">
@@ -808,55 +808,55 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>71.5</v>
+        <v>161.1</v>
       </c>
       <c r="D20" t="n">
-        <v>143.9</v>
+        <v>209.44</v>
       </c>
       <c r="E20" t="n">
-        <v>22.86</v>
+        <v>17.096</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>59.24</v>
+        <v>228.22</v>
       </c>
       <c r="D21" t="n">
-        <v>139.84</v>
+        <v>301.56</v>
       </c>
       <c r="E21" t="n">
-        <v>22.296</v>
+        <v>12.484</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>149.22</v>
+        <v>153.7</v>
       </c>
       <c r="D22" t="n">
-        <v>212.02</v>
+        <v>210.3</v>
       </c>
       <c r="E22" t="n">
-        <v>14.888</v>
+        <v>18.38</v>
       </c>
     </row>
     <row r="23">
@@ -865,17 +865,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>212.02</v>
+        <v>123.04</v>
       </c>
       <c r="D23" t="n">
-        <v>253.58</v>
+        <v>164.26</v>
       </c>
       <c r="E23" t="n">
-        <v>11.872</v>
+        <v>20.984</v>
       </c>
     </row>
     <row r="24">
@@ -884,36 +884,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>201.04</v>
+        <v>236.46</v>
       </c>
       <c r="D24" t="n">
-        <v>271.36</v>
+        <v>286.96</v>
       </c>
       <c r="E24" t="n">
-        <v>13.064</v>
+        <v>12.964</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>271.36</v>
+        <v>209.44</v>
       </c>
       <c r="D25" t="n">
-        <v>321.22</v>
+        <v>253.14</v>
       </c>
       <c r="E25" t="n">
-        <v>10.208</v>
+        <v>13.856</v>
       </c>
     </row>
     <row r="26">
@@ -922,36 +922,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>143.9</v>
+        <v>253.14</v>
       </c>
       <c r="D26" t="n">
-        <v>195.62</v>
+        <v>295.74</v>
       </c>
       <c r="E26" t="n">
-        <v>18.828</v>
+        <v>10.736</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>215.6</v>
+        <v>191.5</v>
       </c>
       <c r="D27" t="n">
-        <v>276.24</v>
+        <v>231.92</v>
       </c>
       <c r="E27" t="n">
-        <v>13.536</v>
+        <v>14.368</v>
       </c>
     </row>
     <row r="28">
@@ -960,74 +960,74 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>253.58</v>
+        <v>164.26</v>
       </c>
       <c r="D28" t="n">
-        <v>302.84</v>
+        <v>209.02</v>
       </c>
       <c r="E28" t="n">
-        <v>9.055999999999999</v>
+        <v>18.128</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>139.84</v>
+        <v>210.3</v>
       </c>
       <c r="D29" t="n">
-        <v>183.54</v>
+        <v>296.46</v>
       </c>
       <c r="E29" t="n">
-        <v>19.056</v>
+        <v>15.364</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>195.62</v>
+        <v>209.02</v>
       </c>
       <c r="D30" t="n">
-        <v>248.96</v>
+        <v>270.54</v>
       </c>
       <c r="E30" t="n">
-        <v>16.124</v>
+        <v>14.096</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>248.96</v>
+        <v>231.92</v>
       </c>
       <c r="D31" t="n">
-        <v>306.46</v>
+        <v>284.02</v>
       </c>
       <c r="E31" t="n">
-        <v>11.504</v>
+        <v>11.768</v>
       </c>
     </row>
   </sheetData>
